--- a/results/yq_test/qft_cz/Rb2Re4/cz_2q_qft_34.qasm_rb2_archsize6_mini_dis.xlsx
+++ b/results/yq_test/qft_cz/Rb2Re4/cz_2q_qft_34.qasm_rb2_archsize6_mini_dis.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N1166"/>
+  <dimension ref="A1:N1167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.497594833374023</v>
+        <v>0.001413106918334961</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01815414428710938</v>
+        <v>0.001211881637573242</v>
       </c>
     </row>
     <row r="7">
@@ -497,13 +497,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.04904866218566895</v>
+        <v>0.05695176124572754</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[(5, 1), (4, 0), (3, 1), (5, 0), (4, 1), (5, 3), (3, 2), (4, 4), (3, 4), (2, 4), (1, 5), (0, 5), (1, 3), (3, 3), (2, 2), (2, 3), (1, 4), (2, 0), (2, 5), (0, 4), (3, 5), (3, 0), (4, 2), (4, 3), (5, 2), (4, 5), (0, 3), (0, 2), (0, 0), (2, 1), (1, 2), (1, 0), (1, 1), (0, 1)]</t>
+          <t>[[5, 1], [4, 0], [3, 1], [5, 0], [4, 1], [5, 3], [3, 2], [4, 4], [3, 4], [2, 4], [1, 5], [0, 5], [1, 3], [3, 3], [2, 2], [2, 3], [1, 4], [2, 0], [2, 5], [0, 4], [3, 5], [3, 0], [4, 2], [4, 3], [5, 2], [4, 5], [0, 3], [0, 2], [0, 0], [2, 1], [1, 2], [1, 0], [1, 1], [0, 1]]</t>
         </is>
       </c>
     </row>
@@ -878,7 +878,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>[(5, 1), (4, 0), (3, 4), (5, 0), (4, 1), (5, 3), (1, 5), (4, 4), (1, 4), (2, 4), (0, 4), (0, 5), (2, 3), (3, 3), (4, 2), (0, 0), (2, 5), (3, 5), (4, 5), (4, 3), (5, 5), (3, 2), (3, 0), (2, 0), (2, 1), (1, 1), (1, 2), (0, 2), (0, 3), (1, 3), (0, 1), (2, 2), (1, 0), (3, 1)]</t>
+          <t>[[5, 1], [4, 0], [3, 4], [5, 0], [4, 1], [5, 3], [1, 5], [4, 4], [1, 4], [2, 4], [0, 4], [0, 5], [2, 3], [3, 3], [4, 2], [0, 0], [2, 5], [3, 5], [4, 5], [4, 3], [5, 5], [3, 2], [3, 0], [2, 0], [2, 1], [1, 1], [1, 2], [0, 2], [0, 3], [1, 3], [0, 1], [2, 2], [1, 0], [3, 1]]</t>
         </is>
       </c>
     </row>
@@ -1405,7 +1405,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>[(5, 1), (4, 0), (3, 4), (5, 0), (4, 1), (5, 3), (3, 1), (4, 4), (3, 2), (2, 5), (3, 3), (3, 5), (4, 3), (4, 2), (5, 2), (3, 0), (4, 5), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4)]</t>
+          <t>[[5, 1], [4, 0], [3, 4], [5, 0], [4, 1], [5, 3], [3, 1], [4, 4], [3, 2], [2, 5], [3, 3], [3, 5], [4, 3], [4, 2], [5, 2], [3, 0], [4, 5], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4]]</t>
         </is>
       </c>
     </row>
@@ -1985,7 +1985,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>[(5, 1), (4, 0), (3, 1), (5, 0), (4, 1), (5, 3), (3, 2), (4, 4), (3, 0), (4, 5), (4, 2), (5, 5), (4, 3), (3, 3), (3, 4), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (3, 5)]</t>
+          <t>[[5, 1], [4, 0], [3, 1], [5, 0], [4, 1], [5, 3], [3, 2], [4, 4], [3, 0], [4, 5], [4, 2], [5, 5], [4, 3], [3, 3], [3, 4], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [3, 5]]</t>
         </is>
       </c>
     </row>
@@ -2671,7 +2671,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>[(5, 1), (4, 0), (3, 1), (5, 0), (3, 0), (5, 3), (4, 2), (4, 5), (5, 2), (4, 1), (3, 2), (4, 4), (3, 4), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (3, 5), (3, 3), (4, 3)]</t>
+          <t>[[5, 1], [4, 0], [3, 1], [5, 0], [3, 0], [5, 3], [4, 2], [4, 5], [5, 2], [4, 1], [3, 2], [4, 4], [3, 4], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [3, 5], [3, 3], [4, 3]]</t>
         </is>
       </c>
     </row>
@@ -3479,7 +3479,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>[(5, 1), (5, 0), (5, 2), (5, 3), (4, 5), (4, 0), (3, 1), (4, 1), (3, 2), (4, 4), (3, 4), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (3, 5), (3, 3), (4, 3), (4, 2), (3, 0)]</t>
+          <t>[[5, 1], [5, 0], [5, 2], [5, 3], [4, 5], [4, 0], [3, 1], [4, 1], [3, 2], [4, 4], [3, 4], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [3, 5], [3, 3], [4, 3], [4, 2], [3, 0]]</t>
         </is>
       </c>
     </row>
@@ -4381,7 +4381,7 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>[(5, 4), (4, 0), (3, 1), (5, 0), (4, 1), (5, 3), (3, 2), (4, 4), (3, 4), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (3, 5), (3, 3), (4, 3), (4, 2), (5, 2), (5, 1), (3, 0)]</t>
+          <t>[[5, 4], [4, 0], [3, 1], [5, 0], [4, 1], [5, 3], [3, 2], [4, 4], [3, 4], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [3, 5], [3, 3], [4, 3], [4, 2], [5, 2], [5, 1], [3, 0]]</t>
         </is>
       </c>
     </row>
@@ -5369,7 +5369,7 @@
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>[(5, 1), (3, 0), (3, 1), (5, 2), (4, 3), (4, 4), (3, 4), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (3, 5), (3, 3), (5, 4), (4, 2), (3, 2), (4, 1), (4, 0), (5, 0), (5, 3)]</t>
+          <t>[[5, 1], [3, 0], [3, 1], [5, 2], [4, 3], [4, 4], [3, 4], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [3, 5], [3, 3], [5, 4], [4, 2], [3, 2], [4, 1], [4, 0], [5, 0], [5, 3]]</t>
         </is>
       </c>
     </row>
@@ -6388,7 +6388,7 @@
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>[(4, 0), (4, 1), (3, 2), (4, 4), (3, 4), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (3, 5), (3, 3), (4, 3), (4, 2), (3, 0), (3, 1), (5, 0), (5, 1), (5, 2), (5, 3), (5, 4)]</t>
+          <t>[[4, 0], [4, 1], [3, 2], [4, 4], [3, 4], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [3, 5], [3, 3], [4, 3], [4, 2], [3, 0], [3, 1], [5, 0], [5, 1], [5, 2], [5, 3], [5, 4]]</t>
         </is>
       </c>
     </row>
@@ -7294,7 +7294,7 @@
     <row r="751">
       <c r="A751" t="inlineStr">
         <is>
-          <t>[(3, 2), (4, 4), (3, 4), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (3, 5), (3, 3), (4, 3), (4, 2), (3, 0), (3, 1), (4, 0), (4, 1), (5, 0), (5, 1), (5, 2), (5, 3), (5, 4)]</t>
+          <t>[[3, 2], [4, 4], [3, 4], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [3, 5], [3, 3], [4, 3], [4, 2], [3, 0], [3, 1], [4, 0], [4, 1], [5, 0], [5, 1], [5, 2], [5, 3], [5, 4]]</t>
         </is>
       </c>
     </row>
@@ -8113,7 +8113,7 @@
     <row r="843">
       <c r="A843" t="inlineStr">
         <is>
-          <t>[(3, 4), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (3, 5), (3, 3), (3, 2), (3, 1), (4, 3), (4, 2), (3, 0), (4, 0), (4, 1), (5, 0), (5, 1), (5, 2), (5, 3), (4, 4), (5, 4)]</t>
+          <t>[[3, 4], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [3, 5], [3, 3], [3, 2], [3, 1], [4, 3], [4, 2], [3, 0], [4, 0], [4, 1], [5, 0], [5, 1], [5, 2], [5, 3], [4, 4], [5, 4]]</t>
         </is>
       </c>
     </row>
@@ -8769,7 +8769,7 @@
     <row r="921">
       <c r="A921" t="inlineStr">
         <is>
-          <t>[(2, 4), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (3, 4), (1, 5), (3, 5), (3, 3), (3, 2), (3, 1), (4, 3), (4, 2), (3, 0), (4, 0), (4, 1), (5, 0), (5, 1), (5, 2), (5, 3), (4, 4), (5, 4)]</t>
+          <t>[[2, 4], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [3, 4], [1, 5], [3, 5], [3, 3], [3, 2], [3, 1], [4, 3], [4, 2], [3, 0], [4, 0], [4, 1], [5, 0], [5, 1], [5, 2], [5, 3], [4, 4], [5, 4]]</t>
         </is>
       </c>
     </row>
@@ -9399,7 +9399,7 @@
     <row r="996">
       <c r="A996" t="inlineStr">
         <is>
-          <t>[(2, 4), (1, 4), (0, 3), (0, 2), (1, 1), (1, 0), (0, 0), (0, 1), (1, 2), (1, 3), (0, 4), (2, 3), (1, 5), (2, 2), (3, 2), (3, 0), (3, 4), (3, 5), (3, 1), (3, 3), (2, 0), (2, 5), (2, 1), (0, 5), (4, 2), (4, 0), (4, 1), (4, 3), (5, 0), (5, 1), (5, 2), (5, 3), (4, 4), (5, 4)]</t>
+          <t>[[2, 4], [1, 4], [0, 3], [0, 2], [1, 1], [1, 0], [0, 0], [0, 1], [1, 2], [1, 3], [0, 4], [2, 3], [1, 5], [2, 2], [3, 2], [3, 0], [3, 4], [3, 5], [3, 1], [3, 3], [2, 0], [2, 5], [2, 1], [0, 5], [4, 2], [4, 0], [4, 1], [4, 3], [5, 0], [5, 1], [5, 2], [5, 3], [4, 4], [5, 4]]</t>
         </is>
       </c>
     </row>
@@ -10041,7 +10041,7 @@
     <row r="1077">
       <c r="A1077" t="inlineStr">
         <is>
-          <t>[(2, 1), (1, 0), (0, 2), (0, 0), (1, 1), (0, 1), (1, 2), (2, 0), (2, 2), (1, 5), (0, 4), (2, 3), (2, 5), (3, 1), (3, 2), (4, 0), (3, 4), (3, 5), (3, 3), (4, 2), (4, 1), (4, 5), (4, 3), (0, 5), (2, 4), (1, 3), (3, 0), (1, 4), (0, 3), (5, 1), (5, 2), (5, 3), (4, 4), (5, 4)]</t>
+          <t>[[2, 1], [1, 0], [0, 2], [0, 0], [1, 1], [0, 1], [1, 2], [2, 0], [2, 2], [1, 5], [0, 4], [2, 3], [2, 5], [3, 1], [3, 2], [4, 0], [3, 4], [3, 5], [3, 3], [4, 2], [4, 1], [4, 5], [4, 3], [0, 5], [2, 4], [1, 3], [3, 0], [1, 4], [0, 3], [5, 1], [5, 2], [5, 3], [4, 4], [5, 4]]</t>
         </is>
       </c>
     </row>
@@ -10527,7 +10527,7 @@
     <row r="1135">
       <c r="A1135" t="inlineStr">
         <is>
-          <t>[(0, 2), (0, 1), (0, 0), (0, 3), (1, 3), (0, 5), (2, 1), (2, 0), (2, 2), (2, 4), (2, 3), (2, 5), (3, 4), (3, 1), (3, 2), (4, 0), (3, 3), (3, 5), (4, 2), (4, 1), (3, 0), (4, 5), (4, 3), (4, 4), (5, 3), (5, 1), (5, 0), (5, 4), (1, 4), (1, 5), (0, 4), (1, 0), (1, 1), (1, 2)]</t>
+          <t>[[0, 2], [0, 1], [0, 0], [0, 3], [1, 3], [0, 5], [2, 1], [2, 0], [2, 2], [2, 4], [2, 3], [2, 5], [3, 4], [3, 1], [3, 2], [4, 0], [3, 3], [3, 5], [4, 2], [4, 1], [3, 0], [4, 5], [4, 3], [4, 4], [5, 3], [5, 1], [5, 0], [5, 4], [1, 4], [1, 5], [0, 4], [1, 0], [1, 1], [1, 2]]</t>
         </is>
       </c>
     </row>
@@ -10722,110 +10722,120 @@
     <row r="1162">
       <c r="A1162" t="inlineStr">
         <is>
-          <t>Movement times</t>
+          <t>move_fidelity</t>
         </is>
       </c>
       <c r="B1162" t="n">
-        <v>168</v>
+        <v>0.989436654393715</v>
       </c>
     </row>
     <row r="1163">
       <c r="A1163" t="inlineStr">
         <is>
-          <t>parallel times</t>
+          <t>Movement times</t>
         </is>
       </c>
       <c r="B1163" t="n">
-        <v>969</v>
+        <v>168</v>
       </c>
     </row>
     <row r="1164">
       <c r="A1164" t="inlineStr">
         <is>
-          <t>partitions</t>
+          <t>parallel times</t>
         </is>
       </c>
       <c r="B1164" t="n">
-        <v>15</v>
+        <v>969</v>
       </c>
     </row>
     <row r="1165">
       <c r="A1165" t="inlineStr">
         <is>
-          <t>total time:</t>
+          <t>partitions</t>
         </is>
       </c>
       <c r="B1165" t="n">
-        <v>2.672106027603149</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1166">
       <c r="A1166" t="inlineStr">
         <is>
+          <t>total time:</t>
+        </is>
+      </c>
+      <c r="B1166" t="n">
+        <v>0.1756541728973389</v>
+      </c>
+    </row>
+    <row r="1167">
+      <c r="A1167" t="inlineStr">
+        <is>
           <t>T_cz</t>
         </is>
       </c>
-      <c r="B1166" t="inlineStr">
+      <c r="B1167" t="inlineStr">
         <is>
           <t>0.2</t>
         </is>
       </c>
-      <c r="C1166" t="inlineStr">
+      <c r="C1167" t="inlineStr">
         <is>
           <t>T_eff</t>
         </is>
       </c>
-      <c r="D1166" t="inlineStr">
+      <c r="D1167" t="inlineStr">
         <is>
           <t>1500000.0</t>
         </is>
       </c>
-      <c r="E1166" t="inlineStr">
+      <c r="E1167" t="inlineStr">
         <is>
           <t>T_trans</t>
         </is>
       </c>
-      <c r="F1166" t="inlineStr">
+      <c r="F1167" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G1166" t="inlineStr">
+      <c r="G1167" t="inlineStr">
         <is>
           <t>AOD_width</t>
         </is>
       </c>
-      <c r="H1166" t="inlineStr">
+      <c r="H1167" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="I1166" t="inlineStr">
+      <c r="I1167" t="inlineStr">
         <is>
           <t>AOD_height</t>
         </is>
       </c>
-      <c r="J1166" t="inlineStr">
+      <c r="J1167" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="K1166" t="inlineStr">
+      <c r="K1167" t="inlineStr">
         <is>
           <t>Move_speed</t>
         </is>
       </c>
-      <c r="L1166" t="inlineStr">
+      <c r="L1167" t="inlineStr">
         <is>
           <t>0.55</t>
         </is>
       </c>
-      <c r="M1166" t="inlineStr">
+      <c r="M1167" t="inlineStr">
         <is>
           <t>F_cz</t>
         </is>
       </c>
-      <c r="N1166" t="inlineStr">
+      <c r="N1167" t="inlineStr">
         <is>
           <t>0.995</t>
         </is>
